--- a/ExperimentGraphics.xlsx
+++ b/ExperimentGraphics.xlsx
@@ -8,95 +8,59 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doane\OneDrive\Desktop\Research\Fall_2025_Research_Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DC3270-0EAF-4AC4-9E19-E940D5F30A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DEE9E5-1C4C-4802-9E9C-AFC11A4E15CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{943E5C32-9CE4-48B7-91D9-F485578DBF41}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{943E5C32-9CE4-48B7-91D9-F485578DBF41}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeSweep" sheetId="2" r:id="rId1"/>
     <sheet name="SeedSweep" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">TimeSweep!$B$23</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">TimeSweep!$B$24:$B$31</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">TimeSweep!$C$12</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">TimeSweep!$C$13:$C$20</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">TimeSweep!$I$12</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">TimeSweep!$I$13:$I$20</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">TimeSweep!$J$12</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">TimeSweep!$J$13:$J$20</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">TimeSweep!$L$12</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">TimeSweep!$L$13:$L$20</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">TimeSweep!$M$12</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">TimeSweep!$M$13:$M$20</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">TimeSweep!$C$23</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">TimeSweep!$E$12</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">TimeSweep!$E$13:$E$20</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">TimeSweep!$F$12</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">TimeSweep!$F$13:$F$20</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">SeedSweep!$B$12</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">SeedSweep!$B$13:$B$20</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">SeedSweep!$C$12</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">SeedSweep!$C$13:$C$20</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">TimeSweep!$I$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">TimeSweep!$I$13:$I$20</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">TimeSweep!$F$12</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">TimeSweep!$F$13:$F$20</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">TimeSweep!$L$12</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">TimeSweep!$L$13:$L$20</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">TimeSweep!$M$12</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">TimeSweep!$M$13:$M$20</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">TimeSweep!$B$23</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">TimeSweep!$B$24:$B$31</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">TimeSweep!$C$23</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">TimeSweep!$C$24:$C$31</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">TimeSweep!$J$12</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">SeedSweep!$E$12</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">SeedSweep!$E$13:$E$20</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">SeedSweep!$F$12</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">SeedSweep!$F$13:$F$20</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">SeedSweep!$B$22</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">SeedSweep!$B$23:$B$30</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">SeedSweep!$C$22</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">SeedSweep!$C$23:$C$30</definedName>
     <definedName name="_xlchart.v1.28" hidden="1">SeedSweep!$E$12</definedName>
     <definedName name="_xlchart.v1.29" hidden="1">SeedSweep!$E$13:$E$20</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">TimeSweep!$C$24:$C$31</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">TimeSweep!$J$13:$J$20</definedName>
     <definedName name="_xlchart.v1.30" hidden="1">SeedSweep!$F$12</definedName>
     <definedName name="_xlchart.v1.31" hidden="1">SeedSweep!$F$13:$F$20</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">SeedSweep!$B$12</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">SeedSweep!$B$13:$B$20</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">SeedSweep!$C$12</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">SeedSweep!$C$13:$C$20</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">SeedSweep!$E$12</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">SeedSweep!$E$13:$E$20</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">SeedSweep!$F$12</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">SeedSweep!$F$13:$F$20</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">TimeSweep!$E$12</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">SeedSweep!$L$12</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">SeedSweep!$L$13:$L$20</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">SeedSweep!$M$12</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">SeedSweep!$M$13:$M$20</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">SeedSweep!$B$12</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">SeedSweep!$B$13:$B$20</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">SeedSweep!$C$12</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">SeedSweep!$C$13:$C$20</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">TimeSweep!$B$12</definedName>
     <definedName name="_xlchart.v1.40" hidden="1">SeedSweep!$I$12</definedName>
     <definedName name="_xlchart.v1.41" hidden="1">SeedSweep!$I$13:$I$20</definedName>
     <definedName name="_xlchart.v1.42" hidden="1">SeedSweep!$J$12</definedName>
     <definedName name="_xlchart.v1.43" hidden="1">SeedSweep!$J$13:$J$20</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">SeedSweep!$L$12</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">SeedSweep!$L$13:$L$20</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">SeedSweep!$M$12</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">SeedSweep!$M$13:$M$20</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">SeedSweep!$E$12</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">SeedSweep!$E$13:$E$20</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">TimeSweep!$E$13:$E$20</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">SeedSweep!$F$12</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">SeedSweep!$F$13:$F$20</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">SeedSweep!$I$12</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">SeedSweep!$I$13:$I$20</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">SeedSweep!$J$12</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">SeedSweep!$J$13:$J$20</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">SeedSweep!$L$12</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">SeedSweep!$L$13:$L$20</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">SeedSweep!$M$12</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">SeedSweep!$M$13:$M$20</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">TimeSweep!$F$12</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">SeedSweep!$B$12</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">SeedSweep!$B$13:$B$20</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">SeedSweep!$C$12</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">SeedSweep!$C$13:$C$20</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">SeedSweep!$B$22</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">SeedSweep!$B$23:$B$30</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">SeedSweep!$C$22</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">SeedSweep!$C$23:$C$30</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">SeedSweep!$L$12</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">SeedSweep!$L$13:$L$20</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">TimeSweep!$F$13:$F$20</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">SeedSweep!$M$12</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">SeedSweep!$M$13:$M$20</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">SeedSweep!$L$12</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">SeedSweep!$L$13:$L$20</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">SeedSweep!$M$12</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">SeedSweep!$M$13:$M$20</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">SeedSweep!$B$12</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">SeedSweep!$B$13:$B$20</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">SeedSweep!$C$12</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">SeedSweep!$C$13:$C$20</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">TimeSweep!$B$12</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">TimeSweep!$B$13:$B$20</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">TimeSweep!$B$13:$B$20</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">TimeSweep!$C$12</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">TimeSweep!$C$13:$C$20</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">TimeSweep!$E$12</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">TimeSweep!$E$13:$E$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -141,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
   <si>
     <t>Control</t>
   </si>
@@ -159,24 +123,6 @@
   </si>
   <si>
     <t>Penalty</t>
-  </si>
-  <si>
-    <t>Control Return</t>
-  </si>
-  <si>
-    <t>Control Precision</t>
-  </si>
-  <si>
-    <t>Positive Rate</t>
-  </si>
-  <si>
-    <t>Control Positive Rate</t>
-  </si>
-  <si>
-    <t>Control Average Increase</t>
-  </si>
-  <si>
-    <t>Average Increase</t>
   </si>
   <si>
     <t>Avg loss</t>
@@ -208,14 +154,41 @@
   <si>
     <t>Control return stats</t>
   </si>
+  <si>
+    <t>Group A is penalized</t>
+  </si>
+  <si>
+    <t>Group B is control</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>Group A</t>
+  </si>
+  <si>
+    <t>Group B</t>
+  </si>
+  <si>
+    <t>ret</t>
+  </si>
+  <si>
+    <t>Prec</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Loss inc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.0000%"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -287,10 +260,10 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -300,14 +273,14 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -317,7 +290,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,20 +314,20 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
+    <cx:title pos="t" align="ctr" overlay="1">
       <cx:tx>
         <cx:txData>
-          <cx:v>Return</cx:v>
+          <cx:v/>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -364,18 +337,15 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-            </a:rPr>
-            <a:t>Return</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+          </a:endParaRPr>
         </a:p>
       </cx:txPr>
     </cx:title>
@@ -384,8 +354,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5BB01F5C-023B-4072-8F9B-93C5EDCD6097}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
-              <cx:v>Return</cx:v>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>Group A</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -410,8 +380,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C36CCE46-CD12-4BC8-BD7D-4A6EB3713FAB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
-              <cx:v>Control Return</cx:v>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>Group B</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -430,10 +400,58 @@
       </cx:plotAreaRegion>
       <cx:axis id="0" hidden="1">
         <cx:catScaling gapWidth="0.200000003"/>
+        <cx:title>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+              </a:endParaRPr>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Annual Return</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Annual Return</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -453,20 +471,20 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.65</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.67</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
+    <cx:title pos="t" align="ctr" overlay="1">
       <cx:tx>
         <cx:txData>
-          <cx:v>Unsuccessful Trade Returns</cx:v>
+          <cx:v/>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -476,18 +494,15 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-            </a:rPr>
-            <a:t>Unsuccessful Trade Returns</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+          </a:endParaRPr>
         </a:p>
       </cx:txPr>
     </cx:title>
@@ -496,8 +511,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-C9F7-4F88-930A-E8FB3A770FF8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.64</cx:f>
-              <cx:v>Average Increase</cx:v>
+              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:v>Group A</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -522,8 +537,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-C9F7-4F88-930A-E8FB3A770FF8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.66</cx:f>
-              <cx:v>Control Average Increase</cx:v>
+              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:v>Group B</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -542,10 +557,58 @@
       </cx:plotAreaRegion>
       <cx:axis id="0" hidden="1">
         <cx:catScaling gapWidth="0.200000003"/>
+        <cx:title>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+              </a:endParaRPr>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Average False Positive Increase</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Average False Positive Increase</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -571,6 +634,11 @@
       </cx:txPr>
     </cx:legend>
   </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -579,20 +647,20 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
+    <cx:title pos="t" align="ctr" overlay="1">
       <cx:tx>
         <cx:txData>
-          <cx:v>Successful Trade Returns</cx:v>
+          <cx:v/>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -602,18 +670,15 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-            </a:rPr>
-            <a:t>Successful Trade Returns</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+          </a:endParaRPr>
         </a:p>
       </cx:txPr>
     </cx:title>
@@ -622,8 +687,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-C9F7-4F88-930A-E8FB3A770FF8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
-              <cx:v>Average Increase</cx:v>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v>Group A</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -648,8 +713,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-C9F7-4F88-930A-E8FB3A770FF8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
-              <cx:v>Control Average Increase</cx:v>
+              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:v>Group B</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -668,10 +733,58 @@
       </cx:plotAreaRegion>
       <cx:axis id="0" hidden="1">
         <cx:catScaling gapWidth="0.200000003"/>
+        <cx:title>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+              </a:endParaRPr>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Average True Positive Increase</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Average True Positive Increase</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -697,6 +810,11 @@
       </cx:txPr>
     </cx:legend>
   </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -705,20 +823,20 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
+    <cx:title pos="t" align="ctr" overlay="1">
       <cx:tx>
         <cx:txData>
-          <cx:v>Positive Rate</cx:v>
+          <cx:v/>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -728,18 +846,15 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-            </a:rPr>
-            <a:t>Positive Rate</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+          </a:endParaRPr>
         </a:p>
       </cx:txPr>
     </cx:title>
@@ -748,8 +863,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000002-6117-4F5A-A348-1EA04B4631D1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
-              <cx:v>Positive Rate</cx:v>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Group A</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -774,8 +889,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000003-6117-4F5A-A348-1EA04B4631D1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
-              <cx:v>Control Positive Rate</cx:v>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Group B</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -794,10 +909,58 @@
       </cx:plotAreaRegion>
       <cx:axis id="0" hidden="1">
         <cx:catScaling gapWidth="0.200000003"/>
+        <cx:title>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+              </a:endParaRPr>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Positive Rate</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Positive Rate</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -823,6 +986,11 @@
       </cx:txPr>
     </cx:legend>
   </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -831,20 +999,20 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
+    <cx:title pos="t" align="ctr" overlay="1">
       <cx:tx>
         <cx:txData>
-          <cx:v>Precision</cx:v>
+          <cx:v/>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -854,18 +1022,15 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-            </a:rPr>
-            <a:t>Precision</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+          </a:endParaRPr>
         </a:p>
       </cx:txPr>
     </cx:title>
@@ -874,8 +1039,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-BE5D-4490-99F9-E530010EA6D8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
-              <cx:v>Precision</cx:v>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>Group A</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -900,8 +1065,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-BE5D-4490-99F9-E530010EA6D8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
-              <cx:v>Control Precision</cx:v>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>Group B</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -920,10 +1085,58 @@
       </cx:plotAreaRegion>
       <cx:axis id="0" hidden="1">
         <cx:catScaling gapWidth="0.200000003"/>
+        <cx:title>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+              </a:endParaRPr>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Precision</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Precision</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -943,20 +1156,20 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
+    <cx:title pos="t" align="ctr" overlay="1">
       <cx:tx>
         <cx:txData>
-          <cx:v>Unsuccessful Trade Returns</cx:v>
+          <cx:v/>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -966,18 +1179,15 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-            </a:rPr>
-            <a:t>Unsuccessful Trade Returns</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+          </a:endParaRPr>
         </a:p>
       </cx:txPr>
     </cx:title>
@@ -986,8 +1196,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-BE5D-4490-99F9-E530010EA6D8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
-              <cx:v>Average Increase</cx:v>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>Group A</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -1012,8 +1222,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-BE5D-4490-99F9-E530010EA6D8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
-              <cx:v>Control Average Increase</cx:v>
+              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:v>Group B</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -1032,10 +1242,58 @@
       </cx:plotAreaRegion>
       <cx:axis id="0" hidden="1">
         <cx:catScaling gapWidth="0.200000003"/>
+        <cx:title>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+              </a:endParaRPr>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Average False Positive Increase</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Average False Positive Increase</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -1055,20 +1313,20 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.77</cx:f>
+        <cx:f>_xlchart.v1.37</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.79</cx:f>
+        <cx:f>_xlchart.v1.39</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
+    <cx:title pos="t" align="ctr" overlay="1">
       <cx:tx>
         <cx:txData>
-          <cx:v>Return</cx:v>
+          <cx:v/>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -1078,18 +1336,15 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-            </a:rPr>
-            <a:t>Return</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+          </a:endParaRPr>
         </a:p>
       </cx:txPr>
     </cx:title>
@@ -1098,8 +1353,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5BB01F5C-023B-4072-8F9B-93C5EDCD6097}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.76</cx:f>
-              <cx:v>Return</cx:v>
+              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:v>Group A</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -1124,8 +1379,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C36CCE46-CD12-4BC8-BD7D-4A6EB3713FAB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.78</cx:f>
-              <cx:v>Control Return</cx:v>
+              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:v>Group B</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -1144,10 +1399,58 @@
       </cx:plotAreaRegion>
       <cx:axis id="0" hidden="1">
         <cx:catScaling gapWidth="0.200000003"/>
+        <cx:title>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+              </a:endParaRPr>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Annual Return</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Annual Return</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -1167,20 +1470,20 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.45</cx:f>
+        <cx:f>_xlchart.v1.33</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.47</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
+    <cx:title pos="t" align="ctr" overlay="1">
       <cx:tx>
         <cx:txData>
-          <cx:v>Successful Trade Returns</cx:v>
+          <cx:v/>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -1190,18 +1493,15 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-            </a:rPr>
-            <a:t>Successful Trade Returns</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+          </a:endParaRPr>
         </a:p>
       </cx:txPr>
     </cx:title>
@@ -1210,8 +1510,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-C9F7-4F88-930A-E8FB3A770FF8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.44</cx:f>
-              <cx:v>Average Increase</cx:v>
+              <cx:f>_xlchart.v1.32</cx:f>
+              <cx:v>Group A</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -1236,8 +1536,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-C9F7-4F88-930A-E8FB3A770FF8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.46</cx:f>
-              <cx:v>Control Average Increase</cx:v>
+              <cx:f>_xlchart.v1.34</cx:f>
+              <cx:v>Group B</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -1256,10 +1556,63 @@
       </cx:plotAreaRegion>
       <cx:axis id="0" hidden="1">
         <cx:catScaling gapWidth="0.200000003"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v/>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+              </a:endParaRPr>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Average True Positive Increase</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Average True Positive Increase</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -1285,6 +1638,11 @@
       </cx:txPr>
     </cx:legend>
   </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -1293,20 +1651,20 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.53</cx:f>
+        <cx:f>_xlchart.v1.41</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.55</cx:f>
+        <cx:f>_xlchart.v1.43</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
+    <cx:title pos="t" align="ctr" overlay="1">
       <cx:tx>
         <cx:txData>
-          <cx:v>Positive Rate</cx:v>
+          <cx:v/>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -1316,18 +1674,15 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-            </a:rPr>
-            <a:t>Positive Rate</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+          </a:endParaRPr>
         </a:p>
       </cx:txPr>
     </cx:title>
@@ -1336,8 +1691,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000002-6117-4F5A-A348-1EA04B4631D1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.52</cx:f>
-              <cx:v>Positive Rate</cx:v>
+              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:v>Group A</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -1362,8 +1717,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000003-6117-4F5A-A348-1EA04B4631D1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.54</cx:f>
-              <cx:v>Control Positive Rate</cx:v>
+              <cx:f>_xlchart.v1.42</cx:f>
+              <cx:v>Group B</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -1382,10 +1737,58 @@
       </cx:plotAreaRegion>
       <cx:axis id="0" hidden="1">
         <cx:catScaling gapWidth="0.200000003"/>
+        <cx:title>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+              </a:endParaRPr>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Positive Rate</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Positive Rate</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -1411,6 +1814,11 @@
       </cx:txPr>
     </cx:legend>
   </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -1419,21 +1827,20 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
+    <cx:title pos="t" align="ctr" overlay="1">
       <cx:tx>
         <cx:txData>
-          <cx:v>Precision
-</cx:v>
+          <cx:v/>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -1443,18 +1850,15 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-            </a:rPr>
-            <a:t>Precision</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+          </a:endParaRPr>
         </a:p>
       </cx:txPr>
     </cx:title>
@@ -1463,8 +1867,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-BE5D-4490-99F9-E530010EA6D8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
-              <cx:v>Precision</cx:v>
+              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:v>Group A</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -1489,8 +1893,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-BE5D-4490-99F9-E530010EA6D8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
-              <cx:v>Control Precision</cx:v>
+              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:v>Group B</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -1509,10 +1913,58 @@
       </cx:plotAreaRegion>
       <cx:axis id="0" hidden="1">
         <cx:catScaling gapWidth="0.200000003"/>
+        <cx:title>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+              </a:endParaRPr>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Precision</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Precision</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -7126,8 +7578,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11290218" y="668103"/>
-              <a:ext cx="3200400" cy="3657600"/>
+              <a:off x="11280239" y="669010"/>
+              <a:ext cx="3211286" cy="3690257"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7204,8 +7656,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15816268" y="4396746"/>
-              <a:ext cx="3200400" cy="3657600"/>
+              <a:off x="15820804" y="4430310"/>
+              <a:ext cx="3209471" cy="3714750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7282,8 +7734,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="16090720" y="586858"/>
-              <a:ext cx="3200400" cy="3657600"/>
+              <a:off x="16095256" y="587765"/>
+              <a:ext cx="3209471" cy="3690257"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7316,15 +7768,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>542774</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>103474</xdr:rowOff>
+      <xdr:colOff>565453</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>80795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>96460</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>132502</xdr:rowOff>
+      <xdr:colOff>119139</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>109822</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -7360,8 +7812,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11328703" y="3605045"/>
-              <a:ext cx="3200400" cy="3657600"/>
+              <a:off x="11349114" y="4695884"/>
+              <a:ext cx="3227614" cy="3657599"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7438,8 +7890,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="19556487" y="625081"/>
-              <a:ext cx="3200400" cy="3657600"/>
+              <a:off x="19571908" y="625988"/>
+              <a:ext cx="3209472" cy="3690257"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7521,8 +7973,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10867815" y="341923"/>
-              <a:ext cx="3200400" cy="3657600"/>
+              <a:off x="10866675" y="345179"/>
+              <a:ext cx="3194539" cy="3655484"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7599,8 +8051,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14810733" y="4111657"/>
-              <a:ext cx="3200400" cy="3657600"/>
+              <a:off x="14802755" y="4109703"/>
+              <a:ext cx="3195515" cy="3598822"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7677,8 +8129,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14819558" y="240899"/>
-              <a:ext cx="3200400" cy="3657600"/>
+              <a:off x="14811580" y="244155"/>
+              <a:ext cx="3195515" cy="3655484"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7755,8 +8207,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10873736" y="4274426"/>
-              <a:ext cx="3200400" cy="3657600"/>
+              <a:off x="10872596" y="4269379"/>
+              <a:ext cx="3194539" cy="3598821"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7833,8 +8285,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="18213681" y="383068"/>
-              <a:ext cx="3200400" cy="3657600"/>
+              <a:off x="18200818" y="386324"/>
+              <a:ext cx="3194539" cy="3655484"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8186,8 +8638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6FB8C3-996A-4E22-A48D-EA8B0338856B}">
   <dimension ref="B1:T37"/>
   <sheetViews>
-    <sheetView zoomScale="56" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="AF35" sqref="AF35"/>
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG41" sqref="AG41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8224,7 +8676,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
@@ -8243,7 +8695,7 @@
         <v>4</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8559,36 +9011,47 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.35">
@@ -8809,15 +9272,20 @@
         <v>7.0800000000000002E-2</v>
       </c>
     </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="T23" s="14"/>
     </row>
@@ -8831,7 +9299,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I24" s="19">
         <f>AVERAGE(J3:J10)</f>
@@ -8846,7 +9314,7 @@
         <v>-1.3299999999999999E-2</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I25" s="11">
         <f>_xlfn.STDEV.S(J3:J10)</f>
@@ -8861,7 +9329,7 @@
         <v>-1.7600000000000001E-2</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I26" s="11">
         <f>I25 / SQRT(COUNT(J3:J10))</f>
@@ -8876,7 +9344,7 @@
         <v>-5.5999999999999999E-3</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I27" s="18">
         <f>_xlfn.T.INV.2T(0.05, COUNT(J3:J10) - 1)</f>
@@ -8891,7 +9359,7 @@
         <v>-2.0799999999999999E-2</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I28" s="19">
         <f>I24-I26*I27</f>
@@ -8906,7 +9374,7 @@
         <v>-9.5999999999999992E-3</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I29" s="19">
         <f>I24+I26*I27</f>
@@ -8929,12 +9397,12 @@
         <v>-2.3999999999999998E-3</v>
       </c>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.35">
       <c r="H32" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I32" s="19">
         <f>AVERAGE(C3:C10)</f>
@@ -8943,7 +9411,7 @@
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H33" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I33" s="11">
         <f>_xlfn.STDEV.S(C3:C10)</f>
@@ -8952,7 +9420,7 @@
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H34" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I34" s="11">
         <f>I33 / SQRT(COUNT(C3:C10))</f>
@@ -8961,7 +9429,7 @@
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H35" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I35" s="18">
         <f>_xlfn.T.INV.2T(0.05, COUNT(C3:C10) - 1)</f>
@@ -8970,7 +9438,7 @@
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H36" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I36" s="19">
         <f>I32-I34*I35</f>
@@ -8979,7 +9447,7 @@
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H37" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I37" s="19">
         <f>I32+I34*I35</f>
@@ -8996,8 +9464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F614BF03-BAD8-4E2B-8CFF-8BC95A7E4475}">
   <dimension ref="B1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView topLeftCell="R1" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9033,7 +9501,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
@@ -9052,7 +9520,7 @@
         <v>4</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9368,36 +9836,47 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.35">
@@ -9618,12 +10097,17 @@
         <v>8.9399999999999993E-2</v>
       </c>
     </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.35">
@@ -9636,7 +10120,7 @@
         <v>-1.5599999999999999E-2</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J23" t="str">
         <f>"["&amp;ROUND(I28, 3)*100&amp;"%, "&amp;ROUND(I29, 3)*100&amp;"%]"</f>
@@ -9652,7 +10136,7 @@
         <v>-1.2800000000000001E-2</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I24" s="19">
         <f>AVERAGE(J3:J10)</f>
@@ -9667,7 +10151,7 @@
         <v>-9.1999999999999998E-3</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I25" s="11">
         <f>_xlfn.STDEV.S(J3:J10)</f>
@@ -9682,7 +10166,7 @@
         <v>-7.4999999999999997E-3</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I26" s="11">
         <f>I25 / SQRT(COUNT(J3:J10))</f>
@@ -9697,7 +10181,7 @@
         <v>-2.3E-3</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I27" s="18">
         <f>_xlfn.T.INV.2T(0.05, COUNT(J3:J10) - 1)</f>
@@ -9712,7 +10196,7 @@
         <v>-4.4999999999999997E-3</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I28" s="19">
         <f>I24-I26*I27</f>
@@ -9727,7 +10211,7 @@
         <v>-1.2999999999999999E-3</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I29" s="19">
         <f>I24+I26*I27</f>
@@ -9744,7 +10228,7 @@
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I31" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J31" t="str">
         <f>"["&amp;ROUND(I36, 3)*100&amp;"%, "&amp;ROUND(I37, 3)*100&amp;"%]"</f>
@@ -9753,52 +10237,58 @@
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.35">
       <c r="H32" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I32" s="19">
         <f>AVERAGE(C3:C10)</f>
         <v>0.47701250000000001</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
       <c r="H33" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I33" s="11">
         <f>_xlfn.STDEV.S(C3:C10)</f>
         <v>0.41460279592985994</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
       <c r="H34" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I34" s="11">
         <f>I33 / SQRT(COUNT(C3:C10))</f>
         <v>0.14658422425045314</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="H35" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I35" s="18">
         <f>_xlfn.T.INV.2T(0.05, COUNT(C3:C10) - 1)</f>
         <v>2.3646242515927849</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="H36" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I36" s="19">
         <f>I32-I34*I35</f>
         <v>0.13039588843646327</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="H37" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I37" s="19">
         <f>I32+I34*I35</f>

--- a/ExperimentGraphics.xlsx
+++ b/ExperimentGraphics.xlsx
@@ -8,57 +8,53 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doane\OneDrive\Desktop\Research\Fall_2025_Research_Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DEE9E5-1C4C-4802-9E9C-AFC11A4E15CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B7383D-029A-41EE-A5A8-37830374207E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{943E5C32-9CE4-48B7-91D9-F485578DBF41}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{943E5C32-9CE4-48B7-91D9-F485578DBF41}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeSweep" sheetId="2" r:id="rId1"/>
     <sheet name="SeedSweep" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">TimeSweep!$I$12</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">TimeSweep!$I$13:$I$20</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">TimeSweep!$B$23</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">TimeSweep!$B$24:$B$31</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">TimeSweep!$F$12</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">TimeSweep!$F$13:$F$20</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">TimeSweep!$L$12</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">TimeSweep!$L$13:$L$20</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">TimeSweep!$M$12</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">TimeSweep!$M$13:$M$20</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">TimeSweep!$B$23</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">TimeSweep!$B$24:$B$31</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">TimeSweep!$C$23</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">TimeSweep!$C$24:$C$31</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">TimeSweep!$J$12</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">TimeSweep!$B$12</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">TimeSweep!$B$13:$B$20</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">TimeSweep!$C$12</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">TimeSweep!$C$13:$C$20</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">TimeSweep!$L$12</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">TimeSweep!$L$13:$L$20</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">TimeSweep!$M$12</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">TimeSweep!$M$13:$M$20</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">TimeSweep!$C$23</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">SeedSweep!$E$12</definedName>
     <definedName name="_xlchart.v1.21" hidden="1">SeedSweep!$E$13:$E$20</definedName>
     <definedName name="_xlchart.v1.22" hidden="1">SeedSweep!$F$12</definedName>
     <definedName name="_xlchart.v1.23" hidden="1">SeedSweep!$F$13:$F$20</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">SeedSweep!$B$22</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">SeedSweep!$B$23:$B$30</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">SeedSweep!$C$22</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">SeedSweep!$C$23:$C$30</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">SeedSweep!$E$12</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">SeedSweep!$E$13:$E$20</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">TimeSweep!$J$13:$J$20</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">SeedSweep!$F$12</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">SeedSweep!$F$13:$F$20</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">SeedSweep!$B$12</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">SeedSweep!$B$13:$B$20</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">SeedSweep!$C$12</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">SeedSweep!$C$13:$C$20</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">SeedSweep!$B$22</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">SeedSweep!$B$23:$B$30</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">TimeSweep!$C$24:$C$31</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">SeedSweep!$C$22</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">SeedSweep!$C$23:$C$30</definedName>
     <definedName name="_xlchart.v1.32" hidden="1">SeedSweep!$L$12</definedName>
     <definedName name="_xlchart.v1.33" hidden="1">SeedSweep!$L$13:$L$20</definedName>
     <definedName name="_xlchart.v1.34" hidden="1">SeedSweep!$M$12</definedName>
     <definedName name="_xlchart.v1.35" hidden="1">SeedSweep!$M$13:$M$20</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">SeedSweep!$B$12</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">SeedSweep!$B$13:$B$20</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">SeedSweep!$C$12</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">SeedSweep!$C$13:$C$20</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">TimeSweep!$B$12</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">SeedSweep!$I$12</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">SeedSweep!$I$13:$I$20</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">SeedSweep!$J$12</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">SeedSweep!$J$13:$J$20</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">TimeSweep!$B$13:$B$20</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">TimeSweep!$C$12</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">TimeSweep!$C$13:$C$20</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">SeedSweep!$I$12</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">SeedSweep!$I$13:$I$20</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">SeedSweep!$J$12</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">SeedSweep!$J$13:$J$20</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">TimeSweep!$I$12</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">TimeSweep!$I$13:$I$20</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">TimeSweep!$J$12</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">TimeSweep!$J$13:$J$20</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">TimeSweep!$E$12</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">TimeSweep!$E$13:$E$20</definedName>
   </definedNames>
@@ -83,7 +79,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -105,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Control</t>
   </si>
@@ -180,6 +176,12 @@
   </si>
   <si>
     <t>Loss inc</t>
+  </si>
+  <si>
+    <t>Group C</t>
+  </si>
+  <si>
+    <t>Group D</t>
   </si>
 </sst>
 </file>
@@ -314,12 +316,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -354,8 +356,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5BB01F5C-023B-4072-8F9B-93C5EDCD6097}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
-              <cx:v>Group A</cx:v>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v>Group C</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -380,8 +382,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C36CCE46-CD12-4BC8-BD7D-4A6EB3713FAB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
-              <cx:v>Group B</cx:v>
+              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:v>Group D</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -471,12 +473,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -511,7 +513,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-C9F7-4F88-930A-E8FB3A770FF8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>Group A</cx:v>
             </cx:txData>
           </cx:tx>
@@ -537,7 +539,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-C9F7-4F88-930A-E8FB3A770FF8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.30</cx:f>
               <cx:v>Group B</cx:v>
             </cx:txData>
           </cx:tx>
@@ -647,12 +649,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -687,8 +689,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-C9F7-4F88-930A-E8FB3A770FF8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
-              <cx:v>Group A</cx:v>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>Group C</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -713,8 +715,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-C9F7-4F88-930A-E8FB3A770FF8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
-              <cx:v>Group B</cx:v>
+              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:v>Group D</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -823,12 +825,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -863,8 +865,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000002-6117-4F5A-A348-1EA04B4631D1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
-              <cx:v>Group A</cx:v>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>Group C</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -889,8 +891,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000003-6117-4F5A-A348-1EA04B4631D1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
-              <cx:v>Group B</cx:v>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>Group D</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -1040,7 +1042,7 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.8</cx:f>
-              <cx:v>Group A</cx:v>
+              <cx:v>Group C</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -1066,7 +1068,7 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.10</cx:f>
-              <cx:v>Group B</cx:v>
+              <cx:v>Group D</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -1156,12 +1158,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1196,8 +1198,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-BE5D-4490-99F9-E530010EA6D8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
-              <cx:v>Group A</cx:v>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Group C</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -1222,8 +1224,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-BE5D-4490-99F9-E530010EA6D8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
-              <cx:v>Group B</cx:v>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Group D</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -1305,6 +1307,11 @@
       <a:noFill/>
     </a:ln>
   </cx:spPr>
+  <cx:printSettings>
+    <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
+    <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  </cx:printSettings>
 </cx:chartSpace>
 </file>
 
@@ -1313,12 +1320,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1353,7 +1360,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5BB01F5C-023B-4072-8F9B-93C5EDCD6097}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:f>_xlchart.v1.24</cx:f>
               <cx:v>Group A</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1379,7 +1386,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C36CCE46-CD12-4BC8-BD7D-4A6EB3713FAB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:f>_xlchart.v1.26</cx:f>
               <cx:v>Group B</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1651,12 +1658,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.41</cx:f>
+        <cx:f>_xlchart.v1.37</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.43</cx:f>
+        <cx:f>_xlchart.v1.39</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1691,7 +1698,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000002-6117-4F5A-A348-1EA04B4631D1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>Group A</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1717,7 +1724,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000003-6117-4F5A-A348-1EA04B4631D1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.42</cx:f>
+              <cx:f>_xlchart.v1.38</cx:f>
               <cx:v>Group B</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1827,12 +1834,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1867,7 +1874,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-BE5D-4490-99F9-E530010EA6D8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>Group A</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1893,7 +1900,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-BE5D-4490-99F9-E530010EA6D8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>Group B</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7812,8 +7819,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11349114" y="4695884"/>
-              <a:ext cx="3227614" cy="3657599"/>
+              <a:off x="11341403" y="4709945"/>
+              <a:ext cx="3211286" cy="3712027"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8638,8 +8645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6FB8C3-996A-4E22-A48D-EA8B0338856B}">
   <dimension ref="B1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG41" sqref="AG41"/>
+    <sheetView topLeftCell="M26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9030,28 +9037,28 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.35">
@@ -9279,10 +9286,10 @@
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I23" t="s">
         <v>8</v>
@@ -9464,8 +9471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F614BF03-BAD8-4E2B-8CFF-8BC95A7E4475}">
   <dimension ref="B1:T37"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C22"/>
+    <sheetView tabSelected="1" topLeftCell="K15" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ExperimentGraphics.xlsx
+++ b/ExperimentGraphics.xlsx
@@ -8,55 +8,56 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doane\OneDrive\Desktop\Research\Fall_2025_Research_Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B7383D-029A-41EE-A5A8-37830374207E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E2A175-4700-446B-A41A-74AC1E8FB71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{943E5C32-9CE4-48B7-91D9-F485578DBF41}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{943E5C32-9CE4-48B7-91D9-F485578DBF41}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeSweep" sheetId="2" r:id="rId1"/>
     <sheet name="SeedSweep" sheetId="1" r:id="rId2"/>
+    <sheet name="Lambda search" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">TimeSweep!$B$23</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">TimeSweep!$B$24:$B$31</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">TimeSweep!$F$12</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">TimeSweep!$F$13:$F$20</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">TimeSweep!$B$12</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">TimeSweep!$B$13:$B$20</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">TimeSweep!$C$12</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">TimeSweep!$C$13:$C$20</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">TimeSweep!$C$12</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">TimeSweep!$C$13:$C$20</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">TimeSweep!$I$12</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">TimeSweep!$I$13:$I$20</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">TimeSweep!$J$12</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">TimeSweep!$J$13:$J$20</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">TimeSweep!$L$12</definedName>
     <definedName name="_xlchart.v1.17" hidden="1">TimeSweep!$L$13:$L$20</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">TimeSweep!$M$12</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">TimeSweep!$M$13:$M$20</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">TimeSweep!$C$23</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">SeedSweep!$E$12</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">SeedSweep!$E$13:$E$20</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">SeedSweep!$F$12</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">SeedSweep!$F$13:$F$20</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">SeedSweep!$B$12</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">SeedSweep!$B$13:$B$20</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">SeedSweep!$C$12</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">SeedSweep!$C$13:$C$20</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">SeedSweep!$B$22</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">SeedSweep!$B$23:$B$30</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">SeedSweep!$B$12</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">SeedSweep!$B$13:$B$20</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">SeedSweep!$C$12</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">SeedSweep!$C$13:$C$20</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">SeedSweep!$L$12</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">SeedSweep!$L$13:$L$20</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">SeedSweep!$M$12</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">SeedSweep!$M$13:$M$20</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">SeedSweep!$I$12</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">SeedSweep!$I$13:$I$20</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">TimeSweep!$C$24:$C$31</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">SeedSweep!$C$22</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">SeedSweep!$C$23:$C$30</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">SeedSweep!$L$12</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">SeedSweep!$L$13:$L$20</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">SeedSweep!$M$12</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">SeedSweep!$M$13:$M$20</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">SeedSweep!$I$12</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">SeedSweep!$I$13:$I$20</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">SeedSweep!$J$12</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">SeedSweep!$J$13:$J$20</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">TimeSweep!$I$12</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">TimeSweep!$I$13:$I$20</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">TimeSweep!$J$12</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">TimeSweep!$J$13:$J$20</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">TimeSweep!$E$12</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">TimeSweep!$E$13:$E$20</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">SeedSweep!$J$12</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">SeedSweep!$J$13:$J$20</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">SeedSweep!$B$22</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">SeedSweep!$B$23:$B$30</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">SeedSweep!$C$22</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">SeedSweep!$C$23:$C$30</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">SeedSweep!$E$12</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">SeedSweep!$E$13:$E$20</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">SeedSweep!$F$12</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">SeedSweep!$F$13:$F$20</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">TimeSweep!$E$12</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">TimeSweep!$E$13:$E$20</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">TimeSweep!$F$12</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">TimeSweep!$F$13:$F$20</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">TimeSweep!$B$12</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">TimeSweep!$B$13:$B$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -101,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="31">
   <si>
     <t>Control</t>
   </si>
@@ -183,6 +184,18 @@
   <si>
     <t>Group D</t>
   </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>Round 2</t>
+  </si>
+  <si>
+    <t>Round 1</t>
+  </si>
+  <si>
+    <t>Sorted</t>
+  </si>
 </sst>
 </file>
 
@@ -222,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -245,12 +258,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -293,6 +315,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -316,12 +341,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -356,7 +381,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5BB01F5C-023B-4072-8F9B-93C5EDCD6097}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>Group C</cx:v>
             </cx:txData>
           </cx:tx>
@@ -382,7 +407,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C36CCE46-CD12-4BC8-BD7D-4A6EB3713FAB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>Group D</cx:v>
             </cx:txData>
           </cx:tx>
@@ -473,12 +498,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.33</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -513,7 +538,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-C9F7-4F88-930A-E8FB3A770FF8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.32</cx:f>
               <cx:v>Group A</cx:v>
             </cx:txData>
           </cx:tx>
@@ -539,7 +564,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-C9F7-4F88-930A-E8FB3A770FF8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:f>_xlchart.v1.34</cx:f>
               <cx:v>Group B</cx:v>
             </cx:txData>
           </cx:tx>
@@ -825,12 +850,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -865,7 +890,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000002-6117-4F5A-A348-1EA04B4631D1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>Group C</cx:v>
             </cx:txData>
           </cx:tx>
@@ -891,7 +916,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000003-6117-4F5A-A348-1EA04B4631D1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>Group D</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1001,12 +1026,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1041,7 +1066,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-BE5D-4490-99F9-E530010EA6D8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Group C</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1067,7 +1092,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-BE5D-4490-99F9-E530010EA6D8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Group D</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1320,12 +1345,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1360,7 +1385,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5BB01F5C-023B-4072-8F9B-93C5EDCD6097}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>Group A</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1386,7 +1411,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C36CCE46-CD12-4BC8-BD7D-4A6EB3713FAB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>Group B</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1477,12 +1502,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.33</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.35</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1517,7 +1542,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-C9F7-4F88-930A-E8FB3A770FF8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.32</cx:f>
+              <cx:f>_xlchart.v1.24</cx:f>
               <cx:v>Group A</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1543,7 +1568,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-C9F7-4F88-930A-E8FB3A770FF8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.34</cx:f>
+              <cx:f>_xlchart.v1.26</cx:f>
               <cx:v>Group B</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1658,12 +1683,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1698,7 +1723,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000002-6117-4F5A-A348-1EA04B4631D1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>Group A</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1724,7 +1749,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000003-6117-4F5A-A348-1EA04B4631D1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:f>_xlchart.v1.30</cx:f>
               <cx:v>Group B</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1834,12 +1859,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.37</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.39</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1874,7 +1899,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-BE5D-4490-99F9-E530010EA6D8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>Group A</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1900,7 +1925,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-BE5D-4490-99F9-E530010EA6D8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.38</cx:f>
               <cx:v>Group B</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8645,8 +8670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6FB8C3-996A-4E22-A48D-EA8B0338856B}">
   <dimension ref="B1:T37"/>
   <sheetViews>
-    <sheetView topLeftCell="M26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9283,6 +9308,14 @@
       <c r="B22" t="s">
         <v>24</v>
       </c>
+      <c r="E22" s="3">
+        <f>AVERAGE(_xlfn.ANCHORARRAY(E13))</f>
+        <v>0.19568750000000001</v>
+      </c>
+      <c r="F22" s="3">
+        <f>AVERAGE(_xlfn.ANCHORARRAY(F13))</f>
+        <v>7.8337500000000004E-2</v>
+      </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
@@ -9471,8 +9504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F614BF03-BAD8-4E2B-8CFF-8BC95A7E4475}">
   <dimension ref="B1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K15" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A5" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="E22:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10116,6 +10149,14 @@
       <c r="C22" t="s">
         <v>20</v>
       </c>
+      <c r="E22" s="3">
+        <f>AVERAGE(_xlfn.ANCHORARRAY(E13))</f>
+        <v>0.19206250000000002</v>
+      </c>
+      <c r="F22" s="3">
+        <f>AVERAGE(_xlfn.ANCHORARRAY(F13))</f>
+        <v>0.10051250000000002</v>
+      </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B23" s="3" cm="1">
@@ -10306,4 +10347,480 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40F9625-8356-45B7-B690-B7F9838D1881}">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2:O2">B2:G2</f>
+        <v>Lambda</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Return</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Precision</v>
+      </c>
+      <c r="M2" t="str">
+        <v>Positive rate</v>
+      </c>
+      <c r="N2" t="str">
+        <v>Avg win</v>
+      </c>
+      <c r="O2" t="str">
+        <v>avg non-win</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="14">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="C3">
+        <v>9.98E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="E3" s="14">
+        <v>2.9100529100529099E-5</v>
+      </c>
+      <c r="F3">
+        <v>0.1749</v>
+      </c>
+      <c r="G3">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="I3" t="str" cm="1">
+        <f t="array" ref="I3:I11">A3:A11</f>
+        <v>Round 1</v>
+      </c>
+      <c r="J3" s="14" cm="1">
+        <f t="array" ref="J3:O12">_xlfn._xlws.SORT(B3:G12, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>3.32E-2</v>
+      </c>
+      <c r="L3">
+        <v>0.15790000000000001</v>
+      </c>
+      <c r="M3">
+        <v>5.0264550264550199E-5</v>
+      </c>
+      <c r="N3">
+        <v>0.12989999999999999</v>
+      </c>
+      <c r="O3">
+        <v>-1.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B4" s="14">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="C4">
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="D4">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E4" s="14">
+        <v>4.2328042328042301E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.05</v>
+      </c>
+      <c r="G4">
+        <v>-1.4500000000000001E-2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="K4">
+        <v>0.43930000000000002</v>
+      </c>
+      <c r="L4">
+        <v>0.1923</v>
+      </c>
+      <c r="M4">
+        <v>6.87830687830687E-5</v>
+      </c>
+      <c r="N4">
+        <v>0.1013</v>
+      </c>
+      <c r="O4">
+        <v>-4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B5" s="14">
+        <v>7.4999999999999993E-5</v>
+      </c>
+      <c r="C5">
+        <v>9.6100000000000005E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.1111</v>
+      </c>
+      <c r="E5" s="14">
+        <v>4.76190476190476E-5</v>
+      </c>
+      <c r="F5">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="G5">
+        <v>-3.2000000000000002E-3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="K5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="L5">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="M5">
+        <v>6.0846560846560803E-5</v>
+      </c>
+      <c r="N5">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="O5">
+        <v>-1.49E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B6" s="14">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C6">
+        <v>9.01E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.1628</v>
+      </c>
+      <c r="E6">
+        <v>1.13756613756613E-4</v>
+      </c>
+      <c r="F6">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="G6">
+        <v>-2.18E-2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>7.5000000000000002E-6</v>
+      </c>
+      <c r="K6">
+        <v>0.68159999999999998</v>
+      </c>
+      <c r="L6">
+        <v>0.2051</v>
+      </c>
+      <c r="M6">
+        <v>1.03174603174603E-4</v>
+      </c>
+      <c r="N6">
+        <v>0.11550000000000001</v>
+      </c>
+      <c r="O6">
+        <v>-9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B7" s="14">
+        <v>7.5000000000000002E-6</v>
+      </c>
+      <c r="C7">
+        <v>0.68159999999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.2051</v>
+      </c>
+      <c r="E7">
+        <v>1.03174603174603E-4</v>
+      </c>
+      <c r="F7">
+        <v>0.11550000000000001</v>
+      </c>
+      <c r="G7">
+        <v>-9.1999999999999998E-3</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K7">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="L7">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="M7">
+        <v>6.0846560846560803E-5</v>
+      </c>
+      <c r="N7">
+        <v>0.1749</v>
+      </c>
+      <c r="O7">
+        <v>-1.12E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B8" s="14">
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="C8">
+        <v>0.43930000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.1923</v>
+      </c>
+      <c r="E8" s="14">
+        <v>6.87830687830687E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.1013</v>
+      </c>
+      <c r="G8">
+        <v>-4.7000000000000002E-3</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="K8">
+        <v>9.01E-2</v>
+      </c>
+      <c r="L8">
+        <v>0.1628</v>
+      </c>
+      <c r="M8">
+        <v>1.13756613756613E-4</v>
+      </c>
+      <c r="N8">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="O8">
+        <v>-2.18E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>3.32E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.15790000000000001</v>
+      </c>
+      <c r="E9" s="14">
+        <v>5.0264550264550199E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.12989999999999999</v>
+      </c>
+      <c r="G9">
+        <v>-1.9800000000000002E-2</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Round 2</v>
+      </c>
+      <c r="J9" s="14">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="K9">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="L9">
+        <v>0.1111</v>
+      </c>
+      <c r="M9">
+        <v>2.6190476190476099E-4</v>
+      </c>
+      <c r="N9">
+        <v>0.12989999999999999</v>
+      </c>
+      <c r="O9">
+        <v>-1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B10" s="14">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C10">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="D10">
+        <v>0.1111</v>
+      </c>
+      <c r="E10">
+        <v>2.6190476190476099E-4</v>
+      </c>
+      <c r="F10">
+        <v>0.12989999999999999</v>
+      </c>
+      <c r="G10">
+        <v>-1.6799999999999999E-2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>7.4999999999999993E-5</v>
+      </c>
+      <c r="K10">
+        <v>9.6100000000000005E-2</v>
+      </c>
+      <c r="L10">
+        <v>0.1111</v>
+      </c>
+      <c r="M10">
+        <v>4.76190476190476E-5</v>
+      </c>
+      <c r="N10">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="O10">
+        <v>-3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B11" s="14">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C11">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="D11">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E11" s="14">
+        <v>6.0846560846560803E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.1749</v>
+      </c>
+      <c r="G11">
+        <v>-1.12E-2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="K11">
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="L11">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M11">
+        <v>4.2328042328042301E-5</v>
+      </c>
+      <c r="N11">
+        <v>0.05</v>
+      </c>
+      <c r="O11">
+        <v>-1.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B12" s="14">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="C12">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="E12" s="14">
+        <v>6.0846560846560803E-5</v>
+      </c>
+      <c r="F12">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G12">
+        <v>-1.49E-2</v>
+      </c>
+      <c r="J12">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="K12">
+        <v>9.98E-2</v>
+      </c>
+      <c r="L12">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="M12">
+        <v>2.9100529100529099E-5</v>
+      </c>
+      <c r="N12">
+        <v>0.1749</v>
+      </c>
+      <c r="O12">
+        <v>-2.3E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B13" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>